--- a/data/arp_summary.xlsx
+++ b/data/arp_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864F7077-14E2-5A41-AAAD-0DFBDDE6ECCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA84B7-838C-7249-991C-B18F5B747983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="820" windowWidth="19120" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
         <v>132.666</v>
       </c>
       <c r="G4">
-        <v>425.20704000000001</v>
+        <v>350</v>
       </c>
       <c r="H4">
         <v>0.38400000000000001</v>

--- a/data/arp_summary.xlsx
+++ b/data/arp_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -27,6 +27,45 @@
   </si>
   <si>
     <t xml:space="preserve">consumption_grants_arp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coronavirus_relief_fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provider_relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_state_and_local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grants_to_tribal_governments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child_care_stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grants_to_small_businesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small_business_credit_initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid_sick_leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee_retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transit_and_aviation_support</t>
   </si>
   <si>
     <t xml:space="preserve">federal_non_health_grants_arp</t>
@@ -536,10 +575,49 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>1348.6438824</v>
@@ -560,18 +638,57 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>35.43392</v>
       </c>
-      <c r="I2" t="n">
+      <c r="V2" t="n">
         <v>0.032</v>
       </c>
-      <c r="J2" t="n">
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>228.1641176</v>
@@ -583,27 +700,66 @@
         <v>166.44</v>
       </c>
       <c r="E3" t="n">
-        <v>599.409</v>
+        <v>603.981</v>
       </c>
       <c r="F3" t="n">
+        <v>567.915</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.694</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.022</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.568</v>
+      </c>
+      <c r="R3" t="n">
+        <v>42.024</v>
+      </c>
+      <c r="S3" t="n">
         <v>724.863</v>
       </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
         <v>94.666</v>
       </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
         <v>425.20704</v>
       </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
         <v>0.384</v>
       </c>
-      <c r="J3" t="n">
+      <c r="W3" t="n">
         <v>163.686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -615,27 +771,66 @@
         <v>166.44</v>
       </c>
       <c r="E4" t="n">
-        <v>599.409</v>
+        <v>603.981</v>
       </c>
       <c r="F4" t="n">
+        <v>567.915</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.694</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9.022</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.568</v>
+      </c>
+      <c r="R4" t="n">
+        <v>42.024</v>
+      </c>
+      <c r="S4" t="n">
         <v>724.863</v>
       </c>
-      <c r="G4" t="n">
+      <c r="T4" t="n">
         <v>94.666</v>
       </c>
-      <c r="H4" t="n">
+      <c r="U4" t="n">
         <v>350</v>
       </c>
-      <c r="I4" t="n">
+      <c r="V4" t="n">
         <v>0.384</v>
       </c>
-      <c r="J4" t="n">
+      <c r="W4" t="n">
         <v>163.686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -647,27 +842,66 @@
         <v>60.387</v>
       </c>
       <c r="E5" t="n">
-        <v>128.9825</v>
+        <v>133.5875</v>
       </c>
       <c r="F5" t="n">
+        <v>77.0925</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>81.609</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="S5" t="n">
         <v>225.2665</v>
       </c>
-      <c r="G5" t="n">
+      <c r="T5" t="n">
         <v>39.542</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>110.248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -679,27 +913,66 @@
         <v>60.387</v>
       </c>
       <c r="E6" t="n">
-        <v>128.9825</v>
+        <v>133.5875</v>
       </c>
       <c r="F6" t="n">
+        <v>77.0925</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>81.609</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="S6" t="n">
         <v>225.2665</v>
       </c>
-      <c r="G6" t="n">
+      <c r="T6" t="n">
         <v>39.542</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>110.248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -711,27 +984,66 @@
         <v>60.387</v>
       </c>
       <c r="E7" t="n">
-        <v>128.9825</v>
+        <v>133.5875</v>
       </c>
       <c r="F7" t="n">
+        <v>77.0925</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>81.609</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="S7" t="n">
         <v>225.2665</v>
       </c>
-      <c r="G7" t="n">
+      <c r="T7" t="n">
         <v>39.542</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>110.248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -743,27 +1055,66 @@
         <v>60.387</v>
       </c>
       <c r="E8" t="n">
-        <v>128.9825</v>
+        <v>133.5875</v>
       </c>
       <c r="F8" t="n">
+        <v>77.0925</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>81.609</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="S8" t="n">
         <v>225.2665</v>
       </c>
-      <c r="G8" t="n">
+      <c r="T8" t="n">
         <v>39.542</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>110.248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -775,27 +1126,66 @@
         <v>3.807</v>
       </c>
       <c r="E9" t="n">
-        <v>39.596</v>
+        <v>40.945</v>
       </c>
       <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>38.596</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S9" t="n">
         <v>82.165</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
         <v>9.619</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>12.726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -807,27 +1197,66 @@
         <v>3.807</v>
       </c>
       <c r="E10" t="n">
-        <v>39.596</v>
+        <v>40.945</v>
       </c>
       <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.596</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S10" t="n">
         <v>82.165</v>
       </c>
-      <c r="G10" t="n">
+      <c r="T10" t="n">
         <v>9.619</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>12.726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -839,27 +1268,66 @@
         <v>3.807</v>
       </c>
       <c r="E11" t="n">
-        <v>39.596</v>
+        <v>40.945</v>
       </c>
       <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.596</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S11" t="n">
         <v>82.165</v>
       </c>
-      <c r="G11" t="n">
+      <c r="T11" t="n">
         <v>9.619</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>12.726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -871,27 +1339,66 @@
         <v>3.807</v>
       </c>
       <c r="E12" t="n">
-        <v>39.596</v>
+        <v>40.945</v>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38.596</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S12" t="n">
         <v>82.165</v>
       </c>
-      <c r="G12" t="n">
+      <c r="T12" t="n">
         <v>9.619</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>12.726</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -903,27 +1410,66 @@
         <v>0.794</v>
       </c>
       <c r="E13" t="n">
+        <v>32.352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>31.911</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S13" t="n">
         <v>46.356</v>
       </c>
-      <c r="G13" t="n">
+      <c r="T13" t="n">
         <v>1.238</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -935,27 +1481,66 @@
         <v>0.794</v>
       </c>
       <c r="E14" t="n">
+        <v>32.352</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>31.911</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S14" t="n">
         <v>46.356</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>1.238</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -967,27 +1552,66 @@
         <v>0.794</v>
       </c>
       <c r="E15" t="n">
+        <v>32.352</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>31.911</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S15" t="n">
         <v>46.356</v>
       </c>
-      <c r="G15" t="n">
+      <c r="T15" t="n">
         <v>1.238</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -999,27 +1623,66 @@
         <v>0.794</v>
       </c>
       <c r="E16" t="n">
+        <v>32.352</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>31.911</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S16" t="n">
         <v>46.356</v>
       </c>
-      <c r="G16" t="n">
+      <c r="T16" t="n">
         <v>1.238</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1031,27 +1694,66 @@
         <v>-2.66</v>
       </c>
       <c r="E17" t="n">
+        <v>23.412</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>23.099</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-2.341</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S17" t="n">
         <v>27.265</v>
       </c>
-      <c r="G17" t="n">
+      <c r="T17" t="n">
         <v>0.248</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>-0.901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1063,27 +1765,66 @@
         <v>-2.66</v>
       </c>
       <c r="E18" t="n">
+        <v>23.412</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>23.099</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-2.341</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S18" t="n">
         <v>27.265</v>
       </c>
-      <c r="G18" t="n">
+      <c r="T18" t="n">
         <v>0.248</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>-0.901</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1095,27 +1836,66 @@
         <v>-2.66</v>
       </c>
       <c r="E19" t="n">
+        <v>23.412</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>23.099</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-2.341</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S19" t="n">
         <v>27.265</v>
       </c>
-      <c r="G19" t="n">
+      <c r="T19" t="n">
         <v>0.248</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>-0.901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1127,27 +1907,66 @@
         <v>-2.66</v>
       </c>
       <c r="E20" t="n">
+        <v>23.412</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>23.099</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-2.341</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S20" t="n">
         <v>27.265</v>
       </c>
-      <c r="G20" t="n">
+      <c r="T20" t="n">
         <v>0.248</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>-0.901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1159,27 +1978,66 @@
         <v>-22.26</v>
       </c>
       <c r="E21" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>10.767</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="S21" t="n">
         <v>11.244</v>
       </c>
-      <c r="G21" t="n">
+      <c r="T21" t="n">
         <v>0.222</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>-2.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1190,10 +2048,23 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1204,10 +2075,23 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1218,10 +2102,23 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1232,10 +2129,23 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1246,10 +2156,23 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1260,10 +2183,23 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1274,10 +2210,23 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1288,10 +2237,23 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1302,10 +2264,23 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1316,10 +2291,23 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1330,10 +2318,23 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1344,10 +2345,23 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1358,10 +2372,23 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1372,10 +2399,23 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1386,10 +2426,23 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1400,10 +2453,23 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1414,10 +2480,23 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1428,10 +2507,23 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1442,10 +2534,23 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1456,10 +2561,23 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1470,10 +2588,23 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1484,10 +2615,23 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1498,10 +2642,23 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1512,6 +2669,19 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
